--- a/05_Strategy_01.xlsx
+++ b/05_Strategy_01.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPT001_投資大趨勢" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPT002_海外投資展望" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPT003_半導體產業趨勢" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPT004_富邦財經趨勢" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,57 +637,69 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>RPT-004</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>2026富邦財經趨勢論壇</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>富邦金控</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>羅瑋/陳奕光/吳傳文</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>2025/12/01</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>【標籤分類統計】</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>分類</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>數量</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>說明</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr"/>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>#全球經濟</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>涵蓋美中歐台經濟展望</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>#央行政策</t>
+          <t>#全球經濟</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
@@ -696,7 +709,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>聯準會、歐央行、日銀、人行政策</t>
+          <t>涵蓋美中歐台經濟展望</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr"/>
@@ -706,7 +719,7 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>#AI半導體</t>
+          <t>#央行政策</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
@@ -716,7 +729,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>輝達、台積電、先進封裝趨勢</t>
+          <t>聯準會、歐央行、日銀、人行政策</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr"/>
@@ -726,17 +739,17 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>#投資組合</t>
+          <t>#AI半導體</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>精選標的與ETF介紹</t>
+          <t>輝達、台積電、先進封裝趨勢</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr"/>
@@ -746,28 +759,48 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>#產業趨勢</t>
+          <t>#投資組合</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>伺服器、散熱、矽光子等</t>
+          <t>精選標的與ETF介紹</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>#產業趨勢</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>伺服器、散熱、矽光子等</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6230,4 +6263,1221 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>【總覽 Overview】</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>報告編號</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>RPT-004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>報告主題</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>2026富邦財經趨勢論壇</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>發布單位</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>富邦金控</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>主講人</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>羅瑋博士（首席經濟學家）、陳奕光（富邦投顧董事長）、吳傳文（台北富邦銀行資深副總）</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>發布日期</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>2025/12/01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>工商時報、經濟日報、鉅亨網、TechNews</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>核心觀點</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>2026年股優於債；台股以微笑曲線走向32,000點，樂觀情境挑戰34,000點；慎防Q1六大變數</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>標籤分類</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>#全球經濟 #台股展望 #Q1風險 #選股策略 #全球趨勢</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>【總體經濟展望 Economic Outlook】</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>全球經濟基調</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>溫和復甦而非強力反彈，不熱不冷、不緊不鬆，成長有底但缺乏動能</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>美國經濟</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>維持溫和成長，AI投資風潮持續，營收及獲利成長預期支撐美股表現</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>歐股日股</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>有望受惠經濟改善預期與資本支出回升，投資人信心可望逐步修復</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>新興市場</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>表現高度取決於美國經貿政策走向、美元資金狀況與全球風險偏好</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>台灣GDP</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>今年受惠資通訊產品出口帶動基期較高，預估明年經濟成長率約2.5%~3.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>【利率與貨幣政策 Interest Rate】</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>利率新常態</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>經過多年量化寬鬆與疫情超寬鬆政策後，市場意識到「超低利率」並非新常態</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>美國中性利率</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>預估約上升至3.0%左右，即便Fed逐步降息，利率水準也難回到疫情前超低區間</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Fed降息空間</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>預估這一輪降息幅度落在9至10碼，政策節奏及人事變動將影響市場走向</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>各國央行</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>主要央行降息接近尾聲，明年進一步降息空間有限</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>長期影響</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>將對企業估值、資金成本與資產配置策略帶來長期影響</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>【資產配置策略 Asset Allocation】</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>核心觀點</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>在風險可控前提下，股票整體優於債券</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>配置思維</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>在股、債、匯及原物料之間進行動態調整，兼顧成長機會與防禦需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>新世代投資人</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>傾向以購買虛擬貨幣及科技股作為避險工具，對持有長天期債券意願明顯改變</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>原物料</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>若OPEC+維持增產策略，美國能源政策偏向提高供給，油價有機會維持溫和區間</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>黃金</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>黃金及其他貴金屬比重有逐步提升趨勢，後續仍有上行空間</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>【Q1六大風險變數 Q1 Risk Factors】</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>風險提醒</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>明年第一季金融市場可能出現類似今年三、四月般劇烈波動的走勢</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>風險因素</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>影響</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>法人獲利調節</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>法人機構1月實現獲利調節部位</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>短期賣壓</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>美國政府關門</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>美國兩黨協商期限為明年1月30日，若協商未果聯邦政府關門時間可能超過今年的43天</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>市場不確定性</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>Q4 GDP公布</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>明年1月底公布第四季經濟成長率，對等關稅對各國實體經濟造成傷害可能為市場帶來震撼</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>經濟數據衝擊</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>科技股財報</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>明年2月科技股公布財報，若營收、資本支出或未來展望不如預期，將引發科技股波動</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>科技股調整</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr"/>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>農曆新年效應</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>農曆新年長假年後可能出現補漲或補跌</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>短期波動</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr"/>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>Fed人事變化</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>Fed人事變化及政策動向，將引領市場氛圍出現重大轉變</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>政策不確定性</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr"/>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>【台股展望 Taiwan Stock Outlook】</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>指數走勢</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>預期指數將以「微笑曲線」走向32,000點，年中逢低佈局，第1、4季為高點</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>基準情境</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>全年高點上看32,000點</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>樂觀情境</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>若對龐大AI算力交易由懷疑轉為樂觀，台股可望挑戰34,000點</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>悲觀情境</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>若市場對AI投資獲利回報時間過長而失去耐心，台股可能下探24,500點</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>獲利成長</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>2026年台股獲利年增率上看20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>資金來源</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>台灣超額儲蓄將突破5兆創新高、ETF新血加入、貨幣型基金可望成為潛在動能</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>當沖融資</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>預估2026年當沖交易佔比將有10~11%、融資占比仍有0.15~0.2%的提升空間</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>【匯率展望 FX Outlook】</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>美元動向</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>Fed人事變化與政策調整主導市場資金動向，若Fed獨立性疑慮下降，各國落實貿易談判承諾，有助維持美元地位</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>非美貨幣</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>隨關稅議題和緩，新興科技增長題材將簇擁資金流向特定非美貨幣</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>新台幣上半年</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>預估區間29.8-30.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>新台幣下半年</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>預估區間29.5-31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>【金馬選股術 Golden HORSE】</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>選股策略</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>富邦投顧董事長陳奕光提出「金馬選股術（Golden HORSE）」</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>代號</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>主題</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>說明</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>相關族群</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Government Defense</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>政府國防</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>國防相關</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>High-speed transmission &amp; HBM</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>高速傳輸、高頻寬記憶體</t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>HBM、高速傳輸</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>OpenAI雲端建置供應鏈</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>雲端建置</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>CSP供應鏈</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>Robot &amp; Robotaxi</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t>機器人與自駕車</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>機器人、自駕車</t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Raw Materials</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>原物料</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>鋼鐵、金屬</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Semiconductor</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>半導體族群</t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>AI晶片、先進封裝</t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>Electricity &amp; Power</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>電力能源</t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>重電、核能</t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>指數型基金</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>ETF</t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>【全球五大投資趨勢 Global Trends】</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>提出者</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>台北富邦銀行資深副總經理吳傳文</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>趨勢一</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>美國領航全世界，火力全開布局AI</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>美國AI投資</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>Apple 6,000億、NVIDIA 5,000億、台積電 1,650億美元對美投資</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>資料中心</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>美國占全球資料中心總容量超過54%，未來4年內總容量預計將翻倍成長</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>AI市值貢獻</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>AI帶來的生產力提升預計將為標普500指數增加13兆至16兆美元或29%市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>趨勢二</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>東協經濟發動機「越南」強勢崛起</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>越南基建</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>南北高鐵1541公里、河內/胡志明市地鐵、高速公路、隆城國際機場</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>投資提醒</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>越南胡志明指數估值已高於五年平均，建議制定部位比例限制以控制風險</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>趨勢三</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>川普保護的「美國鋼鐵與金屬」機會</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>盈餘反轉</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>2026年將是美國鋼鐵與金屬企業盈餘反轉的重要一年</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>驅動因素</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>建廠需求擴張與關稅支撐價格，預期2026年起獲利重新增長</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>趨勢四</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>核能復興「鈾礦」投資再起</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>趨勢說明</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>電力需求大增與對乾淨能源及電力可靠性的重視，各國增加對SMR小型模組化反應爐等新技術投資</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>投資風險</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>核能與鈾礦族群對鈾價敏感，股價波動大，須留意政策轉向風險</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>趨勢五</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>自駕車與機器人應用加速</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>趨勢說明</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>高齡化與缺工推動自駕車與機器人應用，加速產業鏈投資機會</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>【國際政經情勢 Geopolitics】</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>美中關係</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>結構性戰略競爭並未明顯降溫，需觀察雙方是否能將暫時性協議轉化為較具持久性的制度性安排</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>關鍵礦物</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>美國與主要盟友加強在關鍵礦產及稀土開採、加工與供應安全上的合作</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>俄烏停火</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>若川普能有效調停俄烏達成停火協議，歐洲各國將可減輕軍費支出負擔，有助歐洲經濟復甦</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>供應鏈重組</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>全球愈來愈多國家極欲建立自主的區域性供應鏈，同時防堵中國的廉價傾銷</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>2026重要事件</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>美國國會期中選舉、主要國家領導人改選、G20與APEC等多邊場合，可能成為政策轉向或談判突破的關鍵時間點</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>【風險警示 Risk Warning】</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>巴菲特指數</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>台股巴菲特指數高達382%，漲勢較美股更加集中，追價籌碼集中少數個股</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>美股槓桿</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>Q3美股融資餘額突破1.1兆美元，較2024年底增加2,200億美元(+25%)，槓桿率達5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>歷史對照</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
+        <is>
+          <t>槓桿率趨近於2000-2001年網路泡沫及2007年次貸風暴時期的5.5%~5.7%水準</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>信用卡違約</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>目前信用卡違約率升至3%，須關注對消費的影響</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>核心觀點</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
+        <is>
+          <t>2026年對投資人而言重點是「活下來」，才能看到風景</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A57:F57"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>